--- a/biology/Botanique/Guirlande_d'Amour/Guirlande_d'Amour.xlsx
+++ b/biology/Botanique/Guirlande_d'Amour/Guirlande_d'Amour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guirlande_d%27Amour</t>
+          <t>Guirlande_d'Amour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Guirlande d'Amour' est un cultivar de rosier obtenu en 1993 par le rosiériste belge Lens. Il a obtenu en 2012 le certificat d'approbation de la rose allemande particulièrement exigeant en ce qui concerne les normes de qualité. Il est issu d'un semis 'Seagull' (Pritchard 1907) x pollen (Rosa multiflora 'Nana' x 'Moonlight' (Pemberton 1913)).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guirlande_d%27Amour</t>
+          <t>Guirlande_d'Amour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier vigoureux et très sain peut être conduit en grimpant ou en gros arbuste avec de longs rameaux exubérants pouvant dépasser 3 mètres[1].
-Dès l'été, de multiples grappes de petites roses blanches semi-doubles (12-16 pétales)[2] aux belles étamines jaunes fleurissent à profusion en pompons[3]. La floraison se poursuit en automne jusqu'aux premières gelées[1]. Les fleurs (3 cm à 4 cm de diamètre) sont résistantes à la pluie et donnent de beaux cynorhodons en automne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier vigoureux et très sain peut être conduit en grimpant ou en gros arbuste avec de longs rameaux exubérants pouvant dépasser 3 mètres.
+Dès l'été, de multiples grappes de petites roses blanches semi-doubles (12-16 pétales) aux belles étamines jaunes fleurissent à profusion en pompons. La floraison se poursuit en automne jusqu'aux premières gelées. Les fleurs (3 cm à 4 cm de diamètre) sont résistantes à la pluie et donnent de beaux cynorhodons en automne.
 Il est parfait pour couvrir arcs, pergolas et grillages ou pour former un gros arbuste en fond de massif.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guirlande_d%27Amour</t>
+          <t>Guirlande_d'Amour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'or de Madrid, 1994</t>
         </is>
